--- a/data/using/Research Data - Demographics - Overall Only.xlsx
+++ b/data/using/Research Data - Demographics - Overall Only.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross.arnold\Documents\PhD\Code\systems_thinking_game_evolved\data\using\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ross\Work\Japan\Drones\Code\systems_thinking_game_evolved\data\using\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF4498-76DC-4D8A-9FA2-A9B5D4F8BBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1800" windowWidth="22740" windowHeight="12540" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="4875" yWindow="1905" windowWidth="22740" windowHeight="12540" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -23,27 +24,29 @@
     <sheet name="Sheet11" sheetId="13" r:id="rId9"/>
     <sheet name="Sheet13" sheetId="15" r:id="rId10"/>
     <sheet name="Demographics" sheetId="2" r:id="rId11"/>
-    <sheet name="LearningStyles" sheetId="14" r:id="rId12"/>
-    <sheet name="Self-Assessments" sheetId="16" r:id="rId13"/>
+    <sheet name="Demographics (2)" sheetId="17" r:id="rId12"/>
+    <sheet name="LearningStylesMatrix" sheetId="18" r:id="rId13"/>
+    <sheet name="LearningStyles" sheetId="14" r:id="rId14"/>
+    <sheet name="Self-Assessments" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="1" r:id="rId15"/>
-    <pivotCache cacheId="2" r:id="rId16"/>
-    <pivotCache cacheId="3" r:id="rId17"/>
-    <pivotCache cacheId="4" r:id="rId18"/>
-    <pivotCache cacheId="5" r:id="rId19"/>
-    <pivotCache cacheId="6" r:id="rId20"/>
-    <pivotCache cacheId="7" r:id="rId21"/>
-    <pivotCache cacheId="8" r:id="rId22"/>
-    <pivotCache cacheId="9" r:id="rId23"/>
+    <pivotCache cacheId="94" r:id="rId16"/>
+    <pivotCache cacheId="95" r:id="rId17"/>
+    <pivotCache cacheId="96" r:id="rId18"/>
+    <pivotCache cacheId="97" r:id="rId19"/>
+    <pivotCache cacheId="98" r:id="rId20"/>
+    <pivotCache cacheId="99" r:id="rId21"/>
+    <pivotCache cacheId="100" r:id="rId22"/>
+    <pivotCache cacheId="101" r:id="rId23"/>
+    <pivotCache cacheId="102" r:id="rId24"/>
+    <pivotCache cacheId="103" r:id="rId25"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -859,11 +862,35 @@
   <si>
     <t>Career</t>
   </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Auditory</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Solitary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -950,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,6 +1053,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,7 +1077,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1134,6 +1167,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1275,7 +1349,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D65A-45D9-8B58-E92FD219E964}"/>
             </c:ext>
@@ -1446,12 +1520,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1460,12 +1529,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1549,6 +1623,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1648,7 +1760,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6212-477C-A723-0DD0AC3DD870}"/>
             </c:ext>
@@ -1815,12 +1927,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1828,12 +1935,529 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Demographics (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Demographics (2)'!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Demographics (2)'!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83DB-4951-9374-A71A7EE35513}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="645897288"/>
+        <c:axId val="645898600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="645897288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Systems Thinking Exposure Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645898600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="645898600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Systems Thinking Maturity Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645897288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1958,7 +2582,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87B7-444C-AA6A-69B1116A17A9}"/>
             </c:ext>
@@ -2131,7 +2755,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2215,6 +2839,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2356,7 +3018,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A5A-4395-9D59-DE1AC6B1F44C}"/>
             </c:ext>
@@ -2523,12 +3185,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2536,12 +3193,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2684,7 +3346,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2743,7 +3405,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2802,7 +3464,7 @@
           <c:showSerName val="1"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2840,7 +3502,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -2860,7 +3522,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
               </c:ext>
@@ -2908,8 +3570,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2953,8 +3618,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3041,7 +3709,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8DD-4E11-AC2F-F5A0F3E5164F}"/>
             </c:ext>
@@ -3101,12 +3769,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3114,12 +3777,17 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3211,6 +3879,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3298,7 +4004,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9542-4341-A561-790830C29FEE}"/>
             </c:ext>
@@ -3465,12 +4171,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3478,12 +4179,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3619,7 +4325,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -3731,10 +4437,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -3849,10 +4552,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:dlblFieldTable/>
               <c15:showDataLabelsRange val="0"/>
@@ -3893,7 +4593,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -3913,7 +4613,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
               </c:ext>
@@ -4014,13 +4714,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4118,13 +4818,13 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EE6E-4392-A0CB-1BFC13F65CB4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4212,7 +4912,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE6E-4392-A0CB-1BFC13F65CB4}"/>
             </c:ext>
@@ -4272,12 +4972,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4285,12 +4980,17 @@
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4382,6 +5082,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4451,7 +5189,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE10-43E5-B70A-28C676A75569}"/>
             </c:ext>
@@ -4618,12 +5356,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4631,12 +5364,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4724,6 +5462,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4805,7 +5584,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3255-4001-976D-2D079786C9E3}"/>
             </c:ext>
@@ -4972,12 +5751,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -4985,12 +5759,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5074,6 +5853,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5155,7 +5972,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F14B-4F17-8748-A11CB9568447}"/>
             </c:ext>
@@ -5322,12 +6139,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5335,12 +6147,17 @@
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5444,6 +6261,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5537,7 +6395,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C35-4A98-B62A-5A3DCE9AEB5B}"/>
             </c:ext>
@@ -5704,18 +6562,18 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -5776,6 +6634,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -7047,6 +7945,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11637,7 +13051,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7089C74-A590-40A0-B5C7-8678FAEC807D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11678,7 +13092,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA4FB33-ECF0-404F-BA8D-D08535AC2B01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11703,6 +13117,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF27527-277E-4F61-B551-0D89CE2BD8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>90487</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -11719,7 +13174,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13BE4AD-7C1D-4F0D-89D1-512A98185D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11760,7 +13215,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6D61F-6F58-416D-8C07-6D4C6AC76F8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11801,7 +13256,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB5CEC-CDB9-47CA-82EA-4239E895135A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11842,7 +13297,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1829FE-16EF-4743-BAE5-528C472AFF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11883,7 +13338,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A6ACBF-905C-4FF2-A8D2-90D88FB5BD58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11924,7 +13379,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C476A340-774F-484C-B57C-0DBB692E5447}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11965,7 +13420,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491DD9A6-6849-4BF9-BBBB-21EE82FCF1FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12006,7 +13461,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FE0486-BE96-416A-B3EE-8A12BB9FA130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12047,7 +13502,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5F98D-4108-466F-AF20-E08627D4DF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12069,7 +13524,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.545536342594" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12202,7 +13657,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.65485324074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="94" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J95" sheet="LearningStyles"/>
   </cacheSource>
@@ -12256,7 +13711,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.548378587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12389,7 +13844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.558078819442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12512,7 +13967,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.572364814812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12645,7 +14100,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.581180092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12768,7 +14223,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.588939814814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -12892,7 +14347,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.597976041667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -13018,7 +14473,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.60828252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -13147,7 +14602,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ross" refreshedDate="44142.637503703707" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AT20" sheet="Demographics"/>
   </cacheSource>
@@ -23780,7 +25235,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24119,7 +25574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable45" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable45" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24262,7 +25717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24601,7 +26056,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable19" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable19" cacheId="96" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -24919,7 +26374,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable32" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable32" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25229,7 +26684,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable37" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable37" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25547,7 +27002,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable5" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -25845,7 +27300,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable26" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable26" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="35">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26151,7 +27606,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable31" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable31" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -26464,7 +27919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable36" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable36" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -27080,20 +28535,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -27101,7 +28556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -27109,7 +28564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -27117,7 +28572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -27125,7 +28580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -27133,7 +28588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -27141,7 +28596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -27149,7 +28604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -27157,7 +28612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -27165,7 +28620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -27173,7 +28628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -27181,7 +28636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -27189,7 +28644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -27197,7 +28652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -27205,7 +28660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -27213,7 +28668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -27228,20 +28683,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>192</v>
       </c>
@@ -27249,7 +28704,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -27257,7 +28712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -27265,7 +28720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -27273,7 +28728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -27281,7 +28736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -27289,7 +28744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -27297,7 +28752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -27305,7 +28760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -27320,45 +28775,45 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR7" sqref="AR7"/>
+      <selection pane="bottomLeft" activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.71875" customWidth="1"/>
-    <col min="2" max="2" width="24.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.27734375" customWidth="1"/>
-    <col min="4" max="12" width="5.1640625" customWidth="1"/>
-    <col min="13" max="13" width="4.27734375" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="16" width="4.27734375" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" customWidth="1"/>
-    <col min="18" max="24" width="4.27734375" customWidth="1"/>
-    <col min="25" max="27" width="5.71875" customWidth="1"/>
-    <col min="28" max="28" width="20.71875" style="23" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="14.21875" customWidth="1"/>
-    <col min="31" max="32" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="24" width="4.28515625" customWidth="1"/>
+    <col min="25" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" style="23" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="32" width="9.85546875" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="20.71875" customWidth="1"/>
-    <col min="35" max="35" width="12.83203125" customWidth="1"/>
-    <col min="36" max="36" width="64.83203125" customWidth="1"/>
-    <col min="37" max="37" width="28.71875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="16.5546875" customWidth="1"/>
-    <col min="39" max="39" width="41.1640625" customWidth="1"/>
-    <col min="40" max="40" width="30.5546875" customWidth="1"/>
-    <col min="41" max="41" width="15.27734375" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" customWidth="1"/>
+    <col min="36" max="36" width="64.85546875" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
+    <col min="39" max="39" width="41.140625" customWidth="1"/>
+    <col min="40" max="40" width="30.5703125" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" customWidth="1"/>
     <col min="42" max="44" width="50" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -27496,7 +28951,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -27638,7 +29093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>374328</v>
       </c>
@@ -27780,7 +29235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>144707</v>
       </c>
@@ -27922,7 +29377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>865260</v>
       </c>
@@ -28064,7 +29519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>530476</v>
       </c>
@@ -28206,7 +29661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>942575</v>
       </c>
@@ -28348,7 +29803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>753307</v>
       </c>
@@ -28490,7 +29945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>821010</v>
       </c>
@@ -28632,7 +30087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>906861</v>
       </c>
@@ -28774,7 +30229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>523118</v>
       </c>
@@ -28916,7 +30371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>739187</v>
       </c>
@@ -29058,7 +30513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>116420</v>
       </c>
@@ -29200,7 +30655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>697106</v>
       </c>
@@ -29342,7 +30797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>930512</v>
       </c>
@@ -29484,7 +30939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>591218</v>
       </c>
@@ -29626,7 +31081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>932101</v>
       </c>
@@ -29768,7 +31223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>103194</v>
       </c>
@@ -29910,7 +31365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>807290</v>
       </c>
@@ -30052,7 +31507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>690179</v>
       </c>
@@ -30195,7 +31650,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AT29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT29">
     <sortCondition descending="1" ref="C2:C29"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30205,28 +31660,4275 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462C411-8C4B-48FA-8D66-9CA7E387DD0B}">
+  <dimension ref="A1:AS45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="26" width="7.42578125" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="23" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="31" width="9.85546875" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" customWidth="1"/>
+    <col min="35" max="35" width="64.85546875" customWidth="1"/>
+    <col min="36" max="36" width="28.7109375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" customWidth="1"/>
+    <col min="38" max="38" width="41.140625" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" customWidth="1"/>
+    <col min="41" max="43" width="50" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" customWidth="1"/>
+    <col min="45" max="45" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="V1" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="W1" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>61046</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2+E2</f>
+        <v>55</v>
+      </c>
+      <c r="G2" s="19">
+        <v>4</v>
+      </c>
+      <c r="H2" s="19">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19">
+        <v>10</v>
+      </c>
+      <c r="J2" s="19">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19">
+        <v>14</v>
+      </c>
+      <c r="L2" s="19">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2">
+        <v>12</v>
+      </c>
+      <c r="T2" s="2">
+        <v>30</v>
+      </c>
+      <c r="U2" s="23">
+        <f t="shared" ref="U2:W17" si="0">IF(X2=0,0,IF(X2&lt;=33,1,IF(X2&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>374328</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F20" si="1">D3+E3</f>
+        <v>59</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19">
+        <v>11</v>
+      </c>
+      <c r="K3" s="19">
+        <v>13</v>
+      </c>
+      <c r="L3" s="19">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>79</v>
+      </c>
+      <c r="N3" s="2">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2">
+        <v>22</v>
+      </c>
+      <c r="U3" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>144707</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19">
+        <v>16</v>
+      </c>
+      <c r="J4" s="19">
+        <v>5</v>
+      </c>
+      <c r="K4" s="19">
+        <v>15</v>
+      </c>
+      <c r="L4" s="19">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>94</v>
+      </c>
+      <c r="O4" s="2">
+        <v>69</v>
+      </c>
+      <c r="P4" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>23</v>
+      </c>
+      <c r="S4" s="2">
+        <v>15</v>
+      </c>
+      <c r="T4" s="2">
+        <v>41</v>
+      </c>
+      <c r="U4" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V4" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>865260</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
+        <v>7</v>
+      </c>
+      <c r="K5" s="19">
+        <v>19</v>
+      </c>
+      <c r="L5" s="19">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>47</v>
+      </c>
+      <c r="R5" s="2">
+        <v>53</v>
+      </c>
+      <c r="S5" s="2">
+        <v>62</v>
+      </c>
+      <c r="T5" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>530476</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G6" s="19">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>17</v>
+      </c>
+      <c r="L6" s="19">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>62</v>
+      </c>
+      <c r="P6" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>58</v>
+      </c>
+      <c r="R6" s="2">
+        <v>53</v>
+      </c>
+      <c r="S6" s="2">
+        <v>62</v>
+      </c>
+      <c r="T6" s="2">
+        <v>37</v>
+      </c>
+      <c r="U6" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>942575</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="19">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>11</v>
+      </c>
+      <c r="J7" s="19">
+        <v>7</v>
+      </c>
+      <c r="K7" s="19">
+        <v>20</v>
+      </c>
+      <c r="L7" s="19">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2">
+        <v>62</v>
+      </c>
+      <c r="P7" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>53</v>
+      </c>
+      <c r="R7" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" s="2">
+        <v>81</v>
+      </c>
+      <c r="T7" s="2">
+        <v>59</v>
+      </c>
+      <c r="U7" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V7" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="18">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>753307</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>12</v>
+      </c>
+      <c r="J8" s="19">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19">
+        <v>14</v>
+      </c>
+      <c r="L8" s="19">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>86</v>
+      </c>
+      <c r="N8" s="2">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
+        <v>54</v>
+      </c>
+      <c r="P8" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2">
+        <v>27</v>
+      </c>
+      <c r="S8" s="2">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
+        <v>33</v>
+      </c>
+      <c r="U8" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W8" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>821010</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G9" s="19">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>4</v>
+      </c>
+      <c r="J9" s="19">
+        <v>8</v>
+      </c>
+      <c r="K9" s="19">
+        <v>15</v>
+      </c>
+      <c r="L9" s="19">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>67</v>
+      </c>
+      <c r="P9" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>11</v>
+      </c>
+      <c r="R9" s="2">
+        <v>12</v>
+      </c>
+      <c r="S9" s="2">
+        <v>8</v>
+      </c>
+      <c r="T9" s="2">
+        <v>44</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>906861</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19">
+        <v>15</v>
+      </c>
+      <c r="J10" s="19">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19">
+        <v>17</v>
+      </c>
+      <c r="L10" s="19">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>81</v>
+      </c>
+      <c r="N10" s="2">
+        <v>63</v>
+      </c>
+      <c r="O10" s="2">
+        <v>81</v>
+      </c>
+      <c r="P10" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>29</v>
+      </c>
+      <c r="R10" s="2">
+        <v>40</v>
+      </c>
+      <c r="S10" s="2">
+        <v>35</v>
+      </c>
+      <c r="T10" s="2">
+        <v>56</v>
+      </c>
+      <c r="U10" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V10" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>523118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="19">
+        <v>6</v>
+      </c>
+      <c r="I11" s="19">
+        <v>10</v>
+      </c>
+      <c r="J11" s="19">
+        <v>6</v>
+      </c>
+      <c r="K11" s="19">
+        <v>19</v>
+      </c>
+      <c r="L11" s="19">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>37</v>
+      </c>
+      <c r="N11" s="2">
+        <v>63</v>
+      </c>
+      <c r="O11" s="2">
+        <v>42</v>
+      </c>
+      <c r="P11" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>66</v>
+      </c>
+      <c r="R11" s="2">
+        <v>77</v>
+      </c>
+      <c r="S11" s="2">
+        <v>85</v>
+      </c>
+      <c r="T11" s="2">
+        <v>52</v>
+      </c>
+      <c r="U11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>739187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>6</v>
+      </c>
+      <c r="I12" s="19">
+        <v>8</v>
+      </c>
+      <c r="J12" s="19">
+        <v>7</v>
+      </c>
+      <c r="K12" s="19">
+        <v>19</v>
+      </c>
+      <c r="L12" s="19">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2">
+        <v>38</v>
+      </c>
+      <c r="O12" s="2">
+        <v>38</v>
+      </c>
+      <c r="P12" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>53</v>
+      </c>
+      <c r="R12" s="2">
+        <v>80</v>
+      </c>
+      <c r="S12" s="2">
+        <v>85</v>
+      </c>
+      <c r="T12" s="2">
+        <v>67</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>116420</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="19">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>10</v>
+      </c>
+      <c r="J13" s="19">
+        <v>12</v>
+      </c>
+      <c r="K13" s="19">
+        <v>16</v>
+      </c>
+      <c r="L13" s="19">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>81</v>
+      </c>
+      <c r="N13" s="2">
+        <v>69</v>
+      </c>
+      <c r="O13" s="2">
+        <v>35</v>
+      </c>
+      <c r="P13" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="2">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2">
+        <v>23</v>
+      </c>
+      <c r="T13" s="2">
+        <v>33</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X13" s="18">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>697106</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3</v>
+      </c>
+      <c r="J14" s="19">
+        <v>10</v>
+      </c>
+      <c r="K14" s="19">
+        <v>13</v>
+      </c>
+      <c r="L14" s="19">
+        <v>23</v>
+      </c>
+      <c r="M14" s="2">
+        <v>70</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>67</v>
+      </c>
+      <c r="P14" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>28</v>
+      </c>
+      <c r="R14" s="2">
+        <v>19</v>
+      </c>
+      <c r="S14" s="2">
+        <v>17</v>
+      </c>
+      <c r="T14" s="2">
+        <v>30</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>930512</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G15" s="19">
+        <v>7</v>
+      </c>
+      <c r="H15" s="19">
+        <v>11</v>
+      </c>
+      <c r="I15" s="19">
+        <v>18</v>
+      </c>
+      <c r="J15" s="19">
+        <v>12</v>
+      </c>
+      <c r="K15" s="19">
+        <v>16</v>
+      </c>
+      <c r="L15" s="19">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2">
+        <v>86</v>
+      </c>
+      <c r="N15" s="2">
+        <v>69</v>
+      </c>
+      <c r="O15" s="2">
+        <v>85</v>
+      </c>
+      <c r="P15" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>21</v>
+      </c>
+      <c r="R15" s="2">
+        <v>21</v>
+      </c>
+      <c r="S15" s="2">
+        <v>15</v>
+      </c>
+      <c r="T15" s="2">
+        <v>33</v>
+      </c>
+      <c r="U15" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W15" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X15" s="18">
+        <v>83</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>67</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>591218</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G16" s="19">
+        <v>6</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6</v>
+      </c>
+      <c r="J16" s="19">
+        <v>14</v>
+      </c>
+      <c r="K16" s="19">
+        <v>17</v>
+      </c>
+      <c r="L16" s="19">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>88</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>100</v>
+      </c>
+      <c r="P16" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>22</v>
+      </c>
+      <c r="R16" s="2">
+        <v>8</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8</v>
+      </c>
+      <c r="T16" s="2">
+        <v>52</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>932101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="19">
+        <v>4</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3</v>
+      </c>
+      <c r="I17" s="19">
+        <v>7</v>
+      </c>
+      <c r="J17" s="19">
+        <v>7</v>
+      </c>
+      <c r="K17" s="19">
+        <v>10</v>
+      </c>
+      <c r="L17" s="19">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>25</v>
+      </c>
+      <c r="O17" s="2">
+        <v>35</v>
+      </c>
+      <c r="P17" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>66</v>
+      </c>
+      <c r="R17" s="2">
+        <v>86</v>
+      </c>
+      <c r="S17" s="2">
+        <v>85</v>
+      </c>
+      <c r="T17" s="2">
+        <v>52</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X17" s="18">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>25</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>103194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>7</v>
+      </c>
+      <c r="I18" s="19">
+        <v>9</v>
+      </c>
+      <c r="J18" s="19">
+        <v>13</v>
+      </c>
+      <c r="K18" s="19">
+        <v>18</v>
+      </c>
+      <c r="L18" s="19">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>72</v>
+      </c>
+      <c r="N18" s="2">
+        <v>56</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>53</v>
+      </c>
+      <c r="R18" s="2">
+        <v>80</v>
+      </c>
+      <c r="S18" s="2">
+        <v>77</v>
+      </c>
+      <c r="T18" s="2">
+        <v>59</v>
+      </c>
+      <c r="U18" s="23">
+        <f>IF(X18=0,0,IF(X18&lt;=33,1,IF(X18&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="V18" s="23">
+        <f>IF(Y18=0,0,IF(Y18&lt;=33,1,IF(Y18&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="W18" s="23">
+        <f>IF(Z18=0,0,IF(Z18&lt;=33,1,IF(Z18&lt;=67, 2, 3)))</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>807290</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>6</v>
+      </c>
+      <c r="J19" s="19">
+        <v>14</v>
+      </c>
+      <c r="K19" s="19">
+        <v>16</v>
+      </c>
+      <c r="L19" s="19">
+        <v>30</v>
+      </c>
+      <c r="M19" s="2">
+        <v>74</v>
+      </c>
+      <c r="N19" s="2">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2">
+        <v>38</v>
+      </c>
+      <c r="P19" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>11</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>56</v>
+      </c>
+      <c r="U19" s="23">
+        <f t="shared" ref="U19:W20" si="2">IF(X19=0,0,IF(X19&lt;=33,1,IF(X19&lt;=67, 2, 3)))</f>
+        <v>1</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X19" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>690179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>8</v>
+      </c>
+      <c r="I20" s="19">
+        <v>11</v>
+      </c>
+      <c r="J20" s="19">
+        <v>13</v>
+      </c>
+      <c r="K20" s="19">
+        <v>17</v>
+      </c>
+      <c r="L20" s="19">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2">
+        <v>81</v>
+      </c>
+      <c r="N20" s="2">
+        <v>56</v>
+      </c>
+      <c r="O20" s="2">
+        <v>46</v>
+      </c>
+      <c r="P20" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>16</v>
+      </c>
+      <c r="R20" s="2">
+        <v>27</v>
+      </c>
+      <c r="S20" s="2">
+        <v>15</v>
+      </c>
+      <c r="T20" s="2">
+        <v>44</v>
+      </c>
+      <c r="U20" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="18">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>33</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="E24" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="D25" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25">
+        <f>CORREL(F2:F20,C2:C20)</f>
+        <v>0.58429213861066531</v>
+      </c>
+      <c r="F25">
+        <f>CORREL(F2:F20,AD2:AD20)</f>
+        <v>0.49731011521556229</v>
+      </c>
+      <c r="G25">
+        <f>CORREL(F2:F20,AK2:AK20)</f>
+        <v>-0.16528912000522569</v>
+      </c>
+      <c r="H25">
+        <f>CORREL(F2:F20,AN2:AN20)</f>
+        <v>0.36134727305873221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1.2</v>
+      </c>
+      <c r="F29">
+        <v>1.4</v>
+      </c>
+      <c r="G29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I29">
+        <v>3.1</v>
+      </c>
+      <c r="J29">
+        <v>3.2</v>
+      </c>
+      <c r="K29">
+        <v>3.3</v>
+      </c>
+      <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>4.2</v>
+      </c>
+      <c r="N29">
+        <v>4.3</v>
+      </c>
+      <c r="O29">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="D30" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30">
+        <f>ROUND(CORREL(F2:F20,X2:X20), 3)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F30">
+        <f>ROUND(CORREL(F2:F20,M2:M20), 3)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G30">
+        <f>ROUND(CORREL(F2:F20,N2:N20), 3)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H30">
+        <f>ROUND(CORREL(F2:F20,O2:O20), 3)</f>
+        <v>0.307</v>
+      </c>
+      <c r="I30">
+        <f>ROUND(CORREL(F2:F20,P2:P20), 3)</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="J30">
+        <f>ROUND(CORREL(F2:F20,Q2:Q20), 3)</f>
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="K30">
+        <f>ROUND(CORREL(F2:F20,R2:R20), 3)</f>
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="L30">
+        <f>ROUND(CORREL(F2:F20,S2:S20), 3)</f>
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="M30">
+        <f>ROUND(CORREL(F2:F20,Y2:Y20), 3)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N30">
+        <f>ROUND(CORREL(F2:F20,Z2:Z20), 3)</f>
+        <v>-0.377</v>
+      </c>
+      <c r="O30">
+        <f>ROUND(CORREL(F2:F20,T2:T20), 3)</f>
+        <v>-0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="D31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31">
+        <f>ROUND(CORREL(E2:E20,X2:X20), 3)</f>
+        <v>0.219</v>
+      </c>
+      <c r="F31">
+        <f>ROUND(CORREL(E2:E20,M2:M20), 3)</f>
+        <v>-0.153</v>
+      </c>
+      <c r="G31">
+        <f>ROUND(CORREL(E2:E20,N2:N20), 3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H31">
+        <f>ROUND(CORREL(E2:E20,O2:O20), 3)</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I31">
+        <f>ROUND(CORREL(E2:E20,P2:P20), 3)</f>
+        <v>0.254</v>
+      </c>
+      <c r="J31">
+        <f>ROUND(CORREL(E2:E20,P2:P20), 3)</f>
+        <v>0.254</v>
+      </c>
+      <c r="K31">
+        <f>ROUND(CORREL(E2:E20,P2:P20), 3)</f>
+        <v>0.254</v>
+      </c>
+      <c r="L31">
+        <f>ROUND(CORREL(E2:E20,S2:S20), 3)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M31">
+        <f>ROUND(CORREL(E2:E20,Y2:Y20), 3)</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N31">
+        <f>ROUND(CORREL(E2:E20,Z2:Z20), 3)</f>
+        <v>-0.36</v>
+      </c>
+      <c r="O31">
+        <f>ROUND(CORREL(E2:E20,T2:T20), 3)</f>
+        <v>-0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1.2</v>
+      </c>
+      <c r="F35">
+        <f>ROUND(CORREL(U2:U20,M2:M20), 3)</f>
+        <v>0.157</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(CORREL(U2:U20,N2:N20), 3)</f>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H35">
+        <f>ROUND(CORREL(U2:U20,O2:O20), 3)</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I35">
+        <f>ROUND(CORREL(U2:U20,P2:P20), 3)</f>
+        <v>0.316</v>
+      </c>
+      <c r="J35">
+        <f>ROUND(CORREL(U2:U20,Q2:Q20), 3)</f>
+        <v>-0.254</v>
+      </c>
+      <c r="K35">
+        <f>ROUND(CORREL(U2:U20,R2:R20), 3)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="L35">
+        <f>ROUND(CORREL(U2:U20,S2:S20), 3)</f>
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="M35">
+        <f>ROUND(CORREL(U2:U20,V2:V20), 3)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="N35">
+        <f>ROUND(CORREL(U2:U20,W2:W20), 3)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="O35">
+        <f>ROUND(CORREL(U2:U20,T2:T20), 3)</f>
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1.4</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(CORREL(M2:M20,N2:N20), 3)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <f>ROUND(CORREL(M2:M20,O2:O20), 3)</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I36">
+        <f>ROUND(CORREL(M2:M20,P2:P20), 3)</f>
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="J36">
+        <f>ROUND(CORREL(M2:M20,Q2:Q20), 3)</f>
+        <v>-0.61399999999999999</v>
+      </c>
+      <c r="K36">
+        <f>ROUND(CORREL(M2:M20,R2:R20), 3)</f>
+        <v>-0.60699999999999998</v>
+      </c>
+      <c r="L36">
+        <f>ROUND(CORREL(M2:M20,S2:S20), 3)</f>
+        <v>-0.65700000000000003</v>
+      </c>
+      <c r="M36">
+        <f>ROUND(CORREL(M2:M20,V2:V20), 3)</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N36">
+        <f>ROUND(CORREL(M2:M20,W2:W20), 3)</f>
+        <v>-0.127</v>
+      </c>
+      <c r="O36">
+        <f>ROUND(CORREL(M2:M20,T2:T20), 3)</f>
+        <v>-0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H37">
+        <f>ROUND(CORREL(N2:N20,O2:O20), 3)</f>
+        <v>-0.129</v>
+      </c>
+      <c r="I37">
+        <f>ROUND(CORREL(N2:N20,P2:P20), 3)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="J37">
+        <f>ROUND(CORREL(N2:N20,Q2:Q20), 3)</f>
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="K37">
+        <f>ROUND(CORREL(N2:N20,R2:R20), 3)</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L37">
+        <f>ROUND(CORREL(N2:N20,S2:S20), 3)</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M37">
+        <f>ROUND(CORREL(N2:N20,V2:V20), 3)</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="N37">
+        <f>ROUND(CORREL(N2:N20,W2:W20), 3)</f>
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="O37">
+        <f>ROUND(CORREL(N2:N20,T2:T20), 3)</f>
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I38">
+        <f>ROUND(CORREL(O2:O20,P2:P20), 3)</f>
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="J38">
+        <f>ROUND(CORREL(O2:O20,Q2:Q20), 3)</f>
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="K38">
+        <f>ROUND(CORREL(O2:O20,R2:R20), 3)</f>
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="L38">
+        <f>ROUND(CORREL(O2:O20,S2:S20), 3)</f>
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="M38">
+        <f>ROUND(CORREL(O2:O20,V2:V20), 3)</f>
+        <v>0.115</v>
+      </c>
+      <c r="N38">
+        <f>ROUND(CORREL(O2:O20,W2:W20), 3)</f>
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="O38">
+        <f>ROUND(CORREL(O2:O20,T2:T20), 3)</f>
+        <v>-0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>3.1</v>
+      </c>
+      <c r="J39">
+        <f>ROUND(CORREL(P2:P20,Q2:Q20), 3)</f>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K39">
+        <f>ROUND(CORREL(P2:P20,R2:R20), 3)</f>
+        <v>0.83</v>
+      </c>
+      <c r="L39">
+        <f>ROUND(CORREL(P2:P20,S2:S20), 3)</f>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M39">
+        <f>ROUND(CORREL(P2:P20,V2:V20), 3)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N39">
+        <f>ROUND(CORREL(P2:P20,W2:W20), 3)</f>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <f>ROUND(CORREL(P2:P20,T2:T20), 3)</f>
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>3.2</v>
+      </c>
+      <c r="K40">
+        <f>ROUND(CORREL(Q2:Q20,R2:R20), 3)</f>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L40">
+        <f>ROUND(CORREL(Q2:Q20,S2:S20), 3)</f>
+        <v>0.95</v>
+      </c>
+      <c r="M40">
+        <f>ROUND(CORREL(Q2:Q20,V2:V20), 3)</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N40">
+        <f>ROUND(CORREL(Q2:Q20,W2:W20), 3)</f>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O40">
+        <f>ROUND(CORREL(Q2:Q20,T2:T20), 3)</f>
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>3.3</v>
+      </c>
+      <c r="L41">
+        <f>ROUND(CORREL(R2:R20,S2:S20), 3)</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M41">
+        <f>ROUND(CORREL(R2:R20,V2:V20), 3)</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N41">
+        <f>ROUND(CORREL(R2:R20,V2:V20), 3)</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="O41">
+        <f>ROUND(CORREL(R2:R20,T2:T20), 3)</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>3.4</v>
+      </c>
+      <c r="M42">
+        <f>ROUND(CORREL(S2:S20,V2:V20), 3)</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="N42">
+        <f>ROUND(CORREL(S2:S20,W2:W20), 3)</f>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="O42">
+        <f>ROUND(CORREL(S2:S20,T2:T20), 3)</f>
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>4.2</v>
+      </c>
+      <c r="N43">
+        <f>ROUND(CORREL(V2:V20,W2:W20), 3)</f>
+        <v>-0.12</v>
+      </c>
+      <c r="O43">
+        <f>ROUND(CORREL(V2:V20,T2:T20), 3)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>4.3</v>
+      </c>
+      <c r="O44">
+        <f>ROUND(CORREL(W2:W20,T2:T20), 3)</f>
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075F53E0-3BB8-46D2-992C-E46581E8B846}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>61046</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3+E3</f>
+        <v>55</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>374328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F21" si="0">D4+E4</f>
+        <v>59</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>144707</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>865260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>530476</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>942575</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>753307</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>821010</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>906861</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>523118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>739187</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>116420</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>697106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>930512</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>591218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>932101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>103194</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>807290</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>690179</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.71875" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -30258,7 +35960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -30284,7 +35986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -30307,7 +36009,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -30330,7 +36032,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -30353,7 +36055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -30368,7 +36070,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
@@ -30389,7 +36091,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -30412,7 +36114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -30433,7 +36135,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -30450,7 +36152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -30473,7 +36175,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="98.4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -30501,7 +36203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -30516,7 +36218,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -30539,7 +36241,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -30559,7 +36261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -30579,7 +36281,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -30598,7 +36300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -30620,7 +36322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -30639,7 +36341,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="49.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -30659,7 +36361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -30673,7 +36375,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -30691,7 +36393,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -30711,7 +36413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -30734,7 +36436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -30754,7 +36456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -30774,7 +36476,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="86.1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -30800,7 +36502,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -30823,7 +36525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="73.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -30846,332 +36548,332 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J40" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J41" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J42" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="71" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J71" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="72" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J72" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="73" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J73" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="74" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J74" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="75" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J75" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="76" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J76" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="77" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J77" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="78" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J78" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="79" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J79" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="80" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J80" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="81" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J81" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="82" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J82" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="83" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J83" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="84" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J84" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="85" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J85" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="86" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J86" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="87" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J87" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="88" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J88" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="89" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J89" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="90" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J90" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="91" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J91" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="92" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J92" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="93" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J93" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="94" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J94" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="10:10" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="95" spans="10:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="J95" s="1" t="s">
         <v>188</v>
       </c>
@@ -31181,21 +36883,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="4" max="19" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="4" max="19" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -31254,7 +36956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>61046</v>
       </c>
@@ -31325,7 +37027,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>84924</v>
       </c>
@@ -31396,7 +37098,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>374328</v>
       </c>
@@ -31467,7 +37169,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>586798</v>
       </c>
@@ -31537,7 +37239,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>144707</v>
       </c>
@@ -31602,7 +37304,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>865260</v>
       </c>
@@ -31667,7 +37369,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>942575</v>
       </c>
@@ -31732,7 +37434,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>753307</v>
       </c>
@@ -31797,7 +37499,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>906861</v>
       </c>
@@ -31862,7 +37564,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>993807</v>
       </c>
@@ -31927,7 +37629,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>739187</v>
       </c>
@@ -31992,7 +37694,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>116420</v>
       </c>
@@ -32057,7 +37759,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>930512</v>
       </c>
@@ -32122,7 +37824,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>932101</v>
       </c>
@@ -32187,7 +37889,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>103194</v>
       </c>
@@ -32252,7 +37954,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>807290</v>
       </c>
@@ -32317,7 +38019,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>690179</v>
       </c>
@@ -32382,52 +38084,52 @@
       <c r="U18" s="1"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U19" s="1"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U20" s="1"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U21" s="1"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U22" s="1"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U24" s="1"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U25" s="1"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U26" s="1"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U27" s="1"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U28" s="1"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U29" s="1"/>
       <c r="V29" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S18">
     <sortCondition descending="1" ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32437,20 +38139,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -32458,7 +38160,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -32466,7 +38168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -32474,7 +38176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -32482,7 +38184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -32490,7 +38192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -32498,7 +38200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -32506,7 +38208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -32514,7 +38216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -32522,7 +38224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -32530,7 +38232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -32538,7 +38240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -32546,7 +38248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -32554,7 +38256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -32562,7 +38264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -32570,7 +38272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -32585,20 +38287,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>147</v>
       </c>
@@ -32606,7 +38308,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -32614,7 +38316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -32629,20 +38331,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -32650,7 +38352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -32658,7 +38360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -32666,7 +38368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -32674,7 +38376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -32682,7 +38384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -32690,7 +38392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -32705,20 +38407,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.27734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -32726,7 +38428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -32734,7 +38436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32749,20 +38451,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.71875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -32770,7 +38472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -32778,7 +38480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -32786,7 +38488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -32801,20 +38503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -32822,7 +38524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -32830,7 +38532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -32838,7 +38540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -32846,7 +38548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -32854,7 +38556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -32869,20 +38571,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>170</v>
       </c>
@@ -32890,7 +38592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -32898,7 +38600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -32906,7 +38608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -32914,7 +38616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -32922,7 +38624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -32937,20 +38639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -32958,7 +38660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -32966,7 +38668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -32974,7 +38676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -32982,7 +38684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -32990,7 +38692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -32998,7 +38700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -33006,7 +38708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
